--- a/download/piratspisokelementov.xlsx
+++ b/download/piratspisokelementov.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="19035" windowHeight="12015"/>
+    <workbookView xWindow="120" yWindow="12" windowWidth="19032" windowHeight="12012"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -213,8 +213,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +305,9 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,8 +317,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -325,42 +361,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -368,6 +368,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -446,6 +451,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -480,6 +486,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -655,25 +662,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="1.5703125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="1.5546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
@@ -699,59 +706,59 @@
       <c r="Q1" s="10"/>
       <c r="R1" s="11"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="5" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="5"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="2"/>
       <c r="O3" s="12" t="s">
         <v>46</v>
       </c>
@@ -759,27 +766,27 @@
       <c r="Q3" s="13"/>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="5" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="5"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="12" t="s">
         <v>47</v>
       </c>
@@ -787,29 +794,29 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="14"/>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="5" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="O5" s="15" t="s">
@@ -819,157 +826,157 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="17"/>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="5" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="5" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="20"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="5" t="s">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="5" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="5" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="20"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="5" t="s">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="5" t="s">
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="20"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="5" t="s">
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="5" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="20"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="5" t="s">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="9" t="s">
         <v>56</v>
       </c>
@@ -980,168 +987,204 @@
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="2" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="5" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="2" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="5" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="2" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="5" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="2" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="5" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="5" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="5" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="5" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="G16:M16"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="G18:M18"/>
@@ -1152,42 +1195,6 @@
     <mergeCell ref="G13:M13"/>
     <mergeCell ref="G14:M14"/>
     <mergeCell ref="G15:M15"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1195,24 +1202,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
